--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="243">
   <si>
     <t>Роль сотрудника</t>
   </si>
@@ -770,7 +770,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +804,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -855,10 +863,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,8 +910,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1181,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1337,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CLEAN(G5)</f>
         <v>frusubroppotou656@yandex.ru</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1530,7 +1541,19 @@
         <v>29</v>
       </c>
     </row>
+    <row r="25" spans="6:8" ht="15.75">
+      <c r="F25" s="3" t="str">
+        <f>CLEAN(E25)</f>
+        <v/>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1540,7 +1563,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1585,7 +1608,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1718,7 +1741,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1740,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1834,7 +1857,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1884,7 +1907,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2894,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3153,7 +3176,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3183,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3375,7 +3398,7 @@
       </c>
       <c r="D3" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3" s="9">
         <v>15</v>
@@ -3451,7 +3474,8 @@
         <v>129</v>
       </c>
       <c r="D4" s="6">
-        <v>5</v>
+        <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
+        <v>9</v>
       </c>
       <c r="E4" s="9">
         <v>10</v>
@@ -3532,7 +3556,7 @@
       </c>
       <c r="D5" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" s="9">
         <v>1</v>
@@ -3609,7 +3633,7 @@
       </c>
       <c r="D6" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
@@ -3686,7 +3710,7 @@
       </c>
       <c r="D7" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
@@ -3767,7 +3791,7 @@
       </c>
       <c r="D8" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="9">
         <v>2</v>
@@ -3844,7 +3868,7 @@
       </c>
       <c r="D9" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9" s="9">
         <v>1</v>
@@ -3921,7 +3945,7 @@
       </c>
       <c r="D10" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="9">
         <v>1</v>
@@ -4002,7 +4026,7 @@
       </c>
       <c r="D11" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
@@ -4080,7 +4104,7 @@
       </c>
       <c r="D12" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>126</v>
@@ -4116,7 +4140,7 @@
       </c>
       <c r="D13" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>128</v>
@@ -4152,7 +4176,7 @@
       </c>
       <c r="D14" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>130</v>
@@ -4187,7 +4211,8 @@
         <v>4</v>
       </c>
       <c r="D15" s="6">
-        <v>8</v>
+        <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
+        <v>5</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>132</v>
@@ -4222,7 +4247,8 @@
         <v>5</v>
       </c>
       <c r="D16" s="6">
-        <v>10</v>
+        <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
+        <v>6</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>134</v>
@@ -4257,7 +4283,8 @@
         <v>6</v>
       </c>
       <c r="D17" s="6">
-        <v>13</v>
+        <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
+        <v>4</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>136</v>
@@ -4293,7 +4320,7 @@
       </c>
       <c r="D18" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>138</v>
@@ -4329,7 +4356,7 @@
       </c>
       <c r="D19" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>140</v>
@@ -4365,7 +4392,7 @@
       </c>
       <c r="D20" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>141</v>
@@ -4407,7 +4434,7 @@
       </c>
       <c r="D21" s="6">
         <f>LOOKUP(F:F,Product!$B:$B,Product!$A:$A)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>143</v>
@@ -4594,7 +4621,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4635,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4720,14 +4747,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="C2" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="E2" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -4737,44 +4764,42 @@
         <v>157</v>
       </c>
       <c r="G2" s="6">
-        <v>123</v>
+        <v>400</v>
       </c>
       <c r="H2" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="K2" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M2" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="O2" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>162</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="R2" s="6"/>
       <c r="S2" s="16"/>
     </row>
     <row r="3" spans="1:19" ht="31.5">
@@ -4782,14 +4807,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="C3" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E3" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -4799,44 +4824,42 @@
         <v>157</v>
       </c>
       <c r="G3" s="6">
-        <v>149</v>
+        <v>600</v>
       </c>
       <c r="H3" s="6">
         <v>15</v>
       </c>
       <c r="I3" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="K3" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M3" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="O3" s="6">
         <v>2</v>
       </c>
       <c r="P3" s="6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>168</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="R3" s="6"/>
       <c r="S3" s="16"/>
     </row>
     <row r="4" spans="1:19" ht="31.5">
@@ -4844,14 +4867,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="C4" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E4" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -4861,59 +4884,57 @@
         <v>157</v>
       </c>
       <c r="G4" s="6">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="H4" s="6">
         <v>10</v>
       </c>
       <c r="I4" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="K4" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M4" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="O4" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>172</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="R4" s="6"/>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="1:19" ht="31.5">
+    <row r="5" spans="1:19" ht="47.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C5" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E5" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -4923,17 +4944,17 @@
         <v>157</v>
       </c>
       <c r="G5" s="6">
-        <v>86</v>
+        <v>4100</v>
       </c>
       <c r="H5" s="6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I5" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="K5" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -4944,23 +4965,21 @@
       </c>
       <c r="M5" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="O5" s="6">
         <v>4</v>
       </c>
       <c r="P5" s="6">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="R5" s="6"/>
       <c r="S5" s="16"/>
     </row>
     <row r="6" spans="1:19" ht="31.5">
@@ -4968,14 +4987,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C6" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="E6" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -4985,43 +5004,43 @@
         <v>157</v>
       </c>
       <c r="G6" s="6">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="H6" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I6" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="K6" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M6" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="O6" s="6">
         <v>5</v>
       </c>
       <c r="P6" s="6">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="S6" s="16"/>
     </row>
@@ -5030,14 +5049,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C7" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E7" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5047,17 +5066,17 @@
         <v>157</v>
       </c>
       <c r="G7" s="6">
-        <v>1700</v>
+        <v>170</v>
       </c>
       <c r="H7" s="6">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I7" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="K7" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -5074,16 +5093,16 @@
         <v>174</v>
       </c>
       <c r="O7" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P7" s="6">
         <v>5</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="S7" s="16"/>
     </row>
@@ -5092,14 +5111,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="C8" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E8" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5109,17 +5128,17 @@
         <v>157</v>
       </c>
       <c r="G8" s="6">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="H8" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I8" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K8" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -5142,11 +5161,9 @@
         <v>19</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>185</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="R8" s="6"/>
       <c r="S8" s="16"/>
     </row>
     <row r="9" spans="1:19" ht="31.5">
@@ -5154,14 +5171,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="C9" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="E9" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5171,17 +5188,17 @@
         <v>157</v>
       </c>
       <c r="G9" s="6">
-        <v>199</v>
+        <v>3500</v>
       </c>
       <c r="H9" s="6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I9" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K9" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -5192,23 +5209,21 @@
       </c>
       <c r="M9" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="O9" s="6">
         <v>5</v>
       </c>
       <c r="P9" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>189</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="R9" s="6"/>
       <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:19" ht="31.5">
@@ -5216,14 +5231,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C10" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="E10" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5233,17 +5248,17 @@
         <v>157</v>
       </c>
       <c r="G10" s="6">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="H10" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I10" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K10" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -5260,16 +5275,16 @@
         <v>174</v>
       </c>
       <c r="O10" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P10" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="S10" s="16"/>
     </row>
@@ -5278,14 +5293,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C11" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E11" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5295,17 +5310,17 @@
         <v>157</v>
       </c>
       <c r="G11" s="6">
-        <v>170</v>
+        <v>1200</v>
       </c>
       <c r="H11" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I11" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="K11" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -5316,22 +5331,22 @@
       </c>
       <c r="M11" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
+        <v>2</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="6">
         <v>3</v>
       </c>
-      <c r="N11" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O11" s="6">
-        <v>5</v>
-      </c>
       <c r="P11" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="S11" s="16"/>
     </row>
@@ -5340,14 +5355,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="C12" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E12" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5357,24 +5372,24 @@
         <v>157</v>
       </c>
       <c r="G12" s="6">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H12" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I12" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="K12" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M12" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
@@ -5384,15 +5399,17 @@
         <v>174</v>
       </c>
       <c r="O12" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P12" s="6">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="R12" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="S12" s="16"/>
     </row>
     <row r="13" spans="1:19" ht="31.5">
@@ -5400,14 +5417,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C13" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E13" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5417,42 +5434,44 @@
         <v>157</v>
       </c>
       <c r="G13" s="6">
-        <v>300</v>
+        <v>149</v>
       </c>
       <c r="H13" s="6">
         <v>15</v>
       </c>
       <c r="I13" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="K13" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M13" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O13" s="6">
         <v>2</v>
       </c>
       <c r="P13" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="R13" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="S13" s="16"/>
     </row>
     <row r="14" spans="1:19" ht="47.25">
@@ -5460,7 +5479,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="C14" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
@@ -5477,17 +5496,17 @@
         <v>157</v>
       </c>
       <c r="G14" s="6">
-        <v>4100</v>
+        <v>2190</v>
       </c>
       <c r="H14" s="6">
         <v>30</v>
       </c>
       <c r="I14" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K14" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -5498,19 +5517,19 @@
       </c>
       <c r="M14" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="O14" s="6">
         <v>4</v>
       </c>
       <c r="P14" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="16"/>
@@ -5520,14 +5539,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="C15" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E15" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5537,10 +5556,10 @@
         <v>157</v>
       </c>
       <c r="G15" s="6">
-        <v>385</v>
+        <v>510</v>
       </c>
       <c r="H15" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I15" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
@@ -5558,10 +5577,10 @@
       </c>
       <c r="M15" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="O15" s="6">
         <v>2</v>
@@ -5570,24 +5589,24 @@
         <v>17</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75">
+    <row r="16" spans="1:19" ht="31.5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C16" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="E16" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5597,17 +5616,17 @@
         <v>157</v>
       </c>
       <c r="G16" s="6">
-        <v>280</v>
+        <v>385</v>
       </c>
       <c r="H16" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I16" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K16" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -5618,19 +5637,19 @@
       </c>
       <c r="M16" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="O16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" s="6">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="16"/>
@@ -5640,14 +5659,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="C17" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E17" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5657,17 +5676,17 @@
         <v>157</v>
       </c>
       <c r="G17" s="6">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="H17" s="6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I17" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="K17" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -5684,13 +5703,13 @@
         <v>174</v>
       </c>
       <c r="O17" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P17" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="16"/>
@@ -5700,14 +5719,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="C18" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="E18" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5717,10 +5736,10 @@
         <v>157</v>
       </c>
       <c r="G18" s="6">
-        <v>510</v>
+        <v>177</v>
       </c>
       <c r="H18" s="6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I18" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
@@ -5744,13 +5763,13 @@
         <v>174</v>
       </c>
       <c r="O18" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="16"/>
@@ -5760,14 +5779,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="C19" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E19" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5777,10 +5796,10 @@
         <v>157</v>
       </c>
       <c r="G19" s="6">
-        <v>510</v>
+        <v>292</v>
       </c>
       <c r="H19" s="6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I19" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
@@ -5791,43 +5810,43 @@
       </c>
       <c r="K19" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M19" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" s="6">
         <v>3</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O19" s="6">
-        <v>2</v>
-      </c>
       <c r="P19" s="6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="R19" s="6"/>
       <c r="S19" s="16"/>
     </row>
-    <row r="20" spans="1:19" ht="47.25">
+    <row r="20" spans="1:19" ht="31.5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="C20" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E20" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5837,24 +5856,24 @@
         <v>157</v>
       </c>
       <c r="G20" s="6">
-        <v>2190</v>
+        <v>100</v>
       </c>
       <c r="H20" s="6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I20" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="K20" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M20" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
@@ -5867,10 +5886,10 @@
         <v>4</v>
       </c>
       <c r="P20" s="6">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="16"/>
@@ -5880,14 +5899,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="C21" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="E21" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5897,17 +5916,17 @@
         <v>157</v>
       </c>
       <c r="G21" s="6">
-        <v>177</v>
+        <v>800</v>
       </c>
       <c r="H21" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I21" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K21" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -5924,13 +5943,13 @@
         <v>174</v>
       </c>
       <c r="O21" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="16"/>
@@ -5940,14 +5959,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C22" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E22" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -5957,17 +5976,17 @@
         <v>157</v>
       </c>
       <c r="G22" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H22" s="6">
         <v>5</v>
       </c>
       <c r="I22" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="K22" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -5987,10 +6006,10 @@
         <v>4</v>
       </c>
       <c r="P22" s="6">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="R22" s="6"/>
       <c r="S22" s="16"/>
@@ -6000,7 +6019,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
@@ -6017,7 +6036,7 @@
         <v>157</v>
       </c>
       <c r="G23" s="6">
-        <v>640</v>
+        <v>510</v>
       </c>
       <c r="H23" s="6">
         <v>5</v>
@@ -6031,10 +6050,10 @@
       </c>
       <c r="K23" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M23" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
@@ -6044,13 +6063,13 @@
         <v>174</v>
       </c>
       <c r="O23" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P23" s="6">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="16"/>
@@ -6060,14 +6079,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C24" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="E24" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -6077,24 +6096,24 @@
         <v>157</v>
       </c>
       <c r="G24" s="6">
-        <v>800</v>
+        <v>234</v>
       </c>
       <c r="H24" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I24" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="K24" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M24" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
@@ -6104,30 +6123,32 @@
         <v>174</v>
       </c>
       <c r="O24" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24" s="6">
         <v>17</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="R24" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" ht="31.5">
+    <row r="25" spans="1:19" ht="15.75">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C25" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="E25" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -6137,17 +6158,17 @@
         <v>157</v>
       </c>
       <c r="G25" s="6">
-        <v>3500</v>
+        <v>280</v>
       </c>
       <c r="H25" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I25" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K25" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -6158,19 +6179,19 @@
       </c>
       <c r="M25" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
+        <v>2</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O25" s="6">
         <v>3</v>
       </c>
-      <c r="N25" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O25" s="6">
-        <v>5</v>
-      </c>
       <c r="P25" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="16"/>
@@ -6180,14 +6201,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="C26" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="E26" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -6197,17 +6218,17 @@
         <v>157</v>
       </c>
       <c r="G26" s="6">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="H26" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I26" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="K26" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -6218,21 +6239,23 @@
       </c>
       <c r="M26" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="O26" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P26" s="6">
         <v>5</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="R26" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="S26" s="16"/>
     </row>
     <row r="27" spans="1:19" ht="31.5">
@@ -6240,14 +6263,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C27" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="E27" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -6257,17 +6280,17 @@
         <v>157</v>
       </c>
       <c r="G27" s="6">
-        <v>292</v>
+        <v>1700</v>
       </c>
       <c r="H27" s="6">
         <v>25</v>
       </c>
       <c r="I27" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="K27" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -6278,19 +6301,19 @@
       </c>
       <c r="M27" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="O27" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="16"/>
@@ -6300,14 +6323,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="C28" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E28" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -6317,17 +6340,17 @@
         <v>157</v>
       </c>
       <c r="G28" s="6">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="H28" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I28" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="K28" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -6344,13 +6367,13 @@
         <v>174</v>
       </c>
       <c r="O28" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P28" s="6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="16"/>
@@ -6360,14 +6383,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="C29" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E29" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -6377,24 +6400,24 @@
         <v>157</v>
       </c>
       <c r="G29" s="6">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="H29" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I29" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="K29" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M29" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
@@ -6404,13 +6427,13 @@
         <v>174</v>
       </c>
       <c r="O29" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P29" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="16"/>
@@ -6420,7 +6443,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C30" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
@@ -6437,7 +6460,7 @@
         <v>157</v>
       </c>
       <c r="G30" s="6">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H30" s="6">
         <v>5</v>
@@ -6451,10 +6474,10 @@
       </c>
       <c r="K30" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M30" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
@@ -6467,12 +6490,14 @@
         <v>4</v>
       </c>
       <c r="P30" s="6">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="R30" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="S30" s="16"/>
     </row>
     <row r="31" spans="1:19" ht="31.5">
@@ -6480,14 +6505,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C31" s="6">
         <f>LOOKUP(D:D,ProductName!$B:$B,ProductName!$A:$A)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E31" s="6">
         <f>LOOKUP(F:F,Union!$B:$B,Union!$A:$A)</f>
@@ -6497,17 +6522,17 @@
         <v>157</v>
       </c>
       <c r="G31" s="6">
-        <v>600</v>
+        <v>123</v>
       </c>
       <c r="H31" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I31" s="6">
         <f>LOOKUP(J:J,Proizvoditel!$B:$B,Proizvoditel!$A:$A)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="K31" s="6">
         <f>LOOKUP(L:L,Postavshic!$B:$B,Postavshic!$A:$A)</f>
@@ -6518,21 +6543,23 @@
       </c>
       <c r="M31" s="6">
         <f>LOOKUP(N:N,ProductCategory!$B:$B,ProductCategory!$A:$A)</f>
+        <v>2</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O31" s="6">
         <v>3</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O31" s="6">
-        <v>5</v>
-      </c>
       <c r="P31" s="6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="R31" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="S31" s="16"/>
     </row>
     <row r="32" spans="1:19" ht="15.75">
@@ -6997,6 +7024,9 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:B54"/>
+  <sortState ref="A2:S54">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7006,7 +7036,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
